--- a/入退場者記録.xlsx
+++ b/入退場者記録.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2325" windowWidth="21600" windowHeight="11295" firstSheet="16" activeTab="23"/>
+    <workbookView xWindow="2385" yWindow="2325" windowWidth="21600" windowHeight="11295" firstSheet="16" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet sheetId="2" name="タイトル" state="visible" r:id="rId4"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="29">
   <si>
     <t>入退場者記録</t>
   </si>
@@ -116,6 +116,21 @@
   </si>
   <si>
     <t>15:11</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>15:19</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>17:24</t>
+  </si>
+  <si>
+    <t>17:28</t>
   </si>
 </sst>
 </file>
@@ -689,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -927,6 +942,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10104,7 +10122,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.4" customHeight="1"/>
@@ -10116,40 +10134,23 @@
     <col min="9" max="10" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" ht="19.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <f>DATE(YEAR(タイトル!B4),MONTH(タイトル!B4),_xlfn.SHEET()-1)</f>
         <v>45105</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4">
-        <f>COUNTIFS($D$4:$D$21, "", E$4:E$21, "&lt;&gt;")</f>
-        <v>1</v>
-      </c>
-      <c r="F1" s="4">
-        <f t="shared" ref="F1:J1" si="0">COUNTIFS($D$4:$D$21, "", F$4:F$21, "&lt;&gt;")</f>
-        <v>1</v>
-      </c>
-      <c r="G1" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H1" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I1" s="4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J1" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -10288,11 +10289,19 @@
       <c r="K7" s="34"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
+      <c r="A8" s="33">
+        <v>1111</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>25</v>
+      </c>
       <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
+      <c r="E8" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
       <c r="H8" s="39"/>
@@ -10301,12 +10310,20 @@
       <c r="K8" s="34"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="33">
+        <v>6</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>26</v>
+      </c>
       <c r="D9" s="36"/>
       <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
+      <c r="F9" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="G9" s="38"/>
       <c r="H9" s="39"/>
       <c r="I9" s="38"/>
@@ -10314,17 +10331,31 @@
       <c r="K9" s="34"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
+      <c r="A10" s="33">
+        <v>1</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>28</v>
+      </c>
       <c r="E10" s="37"/>
       <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="H10" s="39"/>
-      <c r="I10" s="38"/>
+      <c r="I10" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="J10" s="40"/>
-      <c r="K10" s="34"/>
+      <c r="K10" s="34" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
@@ -10471,7 +10502,7 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B1:K1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -10489,6 +10520,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
